--- a/Mouse_miR_sequence_fasta/Mouse_exonic_miR_sequence_unique.xlsx
+++ b/Mouse_miR_sequence_fasta/Mouse_exonic_miR_sequence_unique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>mature_host_mRNA_Length</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>miR_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>miR_strand</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gene_type</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pre-miRNA_sequences</t>
         </is>
@@ -494,22 +499,25 @@
       <c r="D2" t="n">
         <v>20510</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>5195</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>mmu-mir-29b-2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>CUUCUGGAAGCUGGUUUCACAUGGUGGCUUAGAUUUUUCCAUCUUUGUAUCUAGCACCAUUUGAAAUCAGUGUUUUAGGAG</t>
         </is>
@@ -534,22 +542,25 @@
       <c r="D3" t="n">
         <v>20510</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>5195</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>mmu-mir-29c</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>AUCUCUUACACAGGCUGACCGAUUUCUCCUGGUGUUCAGAGUCUGUUUUUGUCUAGCACCAUUUGAAAUCGGUUAUGAUGUAGGGGGA</t>
         </is>
@@ -574,22 +585,25 @@
       <c r="D4" t="n">
         <v>13077</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>521</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>mmu-mir-133b</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>CCUCCAAAGGGAGUGGCCCCCUGCUCUGGCUGGUCAAACGGAACCAAGUCCGUCUUCCUGAGAGGUUUGGUCCCCUUCAACCAGCUACAGCAGGGCUGGCAAAGCUCAAUAUUUGGAGA</t>
         </is>
@@ -614,22 +628,25 @@
       <c r="D5" t="n">
         <v>147</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>147</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>mmu-mir-3535</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>UUUGGGGCUGUCUUUAUGUUGUUGCUGAGAAAAUGACAACUGGAUAUGAUGACUGAUUACCUGAGAAAUAAUUGAUGAAAUCUCAAGAAAAUUCCUCUAGAUAGUCAAGUUCUGAUCCAGCUAUGUCAACUCAAAGCAGCAACCUUG</t>
         </is>
@@ -654,22 +671,25 @@
       <c r="D6" t="n">
         <v>66</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>66</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>mmu-mir-5104b</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>UGGGCCAUCUCUUUAGUCCAGAAAUACUUUUUAUGAAACAAAUCAGGGCUAGUGAGAUGGCUCAGC</t>
         </is>
@@ -694,22 +714,25 @@
       <c r="D7" t="n">
         <v>118</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>118</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>mmu-mir-1843b</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>CAACAUGGAGGUCUCUGUCUGACUUAGGAUAGCUGGCUAAGUCCGAUCGUUCCCCUCCAUACAACC</t>
         </is>
@@ -734,22 +757,25 @@
       <c r="D8" t="n">
         <v>7928</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>7928</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>mmu-mir-199a-2</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>UGGAAGCUUCAGGAGAUCCUGCUCCGUCGCCCCAGUGUUCAGACUACCUGUUCAGGACAAUGCCGUUGUACAGUAGUCUGCACAUUGGUUAGACUGGGCAAGGGCCAGCA</t>
         </is>
@@ -774,22 +800,25 @@
       <c r="D9" t="n">
         <v>7928</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7928</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>mmu-mir-214</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>GGCCUGGCUGGACAGAGUUGUCAUGUGUCUGCCUGUCUACACUUGCUGUGCAGAACAUCCGCUCACCUGUACAGCAGGCACAGACAGGCAGUCACAUGACAACCCAGCCU</t>
         </is>
@@ -814,22 +843,25 @@
       <c r="D10" t="n">
         <v>63</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>63</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>mmu-mir-12178</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>UAUGGGUGGCUGGUCUCAGAAGAGACCCCAUUUGUAUCACUUUUCUGACUCAGCCACCUGAGA</t>
         </is>
@@ -854,22 +886,25 @@
       <c r="D11" t="n">
         <v>78</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>78</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>mmu-mir-12179</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>UCUCUGUCCUCCAGUUCUGGGGUUAGUGAUGCAUGCAGACACAUCUAGUUUUUAACCUGGGAGCUGAGGACUGAGACU</t>
         </is>
@@ -894,22 +929,25 @@
       <c r="D12" t="n">
         <v>119856</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>20102</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>mmu-mir-5128</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>UCUUAAUUACUGAGGUCUUUCUAGCUCCUGUUUUACUAAUUUAAAAAGUGCAAUUGGGGCUGGCGAGAUGGCUUAGUGGUUAAG</t>
         </is>
@@ -934,22 +972,25 @@
       <c r="D13" t="n">
         <v>68009</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>7497</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>mmu-mir-1902</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>GUUUAUUUUGGGAGUGUUUGCUGUAUAAUUGGACUUGAUAAAAUGUUUAGAGGUGCAGUAGGCAUGACUUGAGUAGAUAA</t>
         </is>
@@ -974,22 +1015,25 @@
       <c r="D14" t="n">
         <v>49526</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>11508</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>mmu-mir-7005</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>AGGGGCCUGGGGAUGGGAGGACCAGCAGAGAAAUUUGGCUUUCCUGUGCCUGCUACCCAUCCCUUGCAG</t>
         </is>
@@ -1014,22 +1058,25 @@
       <c r="D15" t="n">
         <v>90</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>mmu-mir-466c-3</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>UGUGUAUAUGUGUUGAUGUGUGUGUGCAUGUACAUAUGUGAAUAUGAUAUACAUAUACAUACACGCACACAUAAGACACAUAUGAGCACA</t>
         </is>
@@ -1054,22 +1101,25 @@
       <c r="D16" t="n">
         <v>35260</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>5498</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>mmu-mir-3967</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>ACUGGCUGCACCUGACUCAGGCAGCAAGAAUUCUAUUGAGCUUGUCUGACUGAUGUUGGAGCACAAAU</t>
         </is>
@@ -1094,22 +1144,25 @@
       <c r="D17" t="n">
         <v>37740</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>3436</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>mmu-mir-219b</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>AGAUGUCCAGCCACAAUUCUCGGUUGGCCGCAGACUCGUACAAGAAUUGCGUUUGGACAAUCAGU</t>
         </is>
@@ -1134,22 +1187,25 @@
       <c r="D18" t="n">
         <v>79</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>79</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>mmu-mir-3154</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>GGCCCCUCCUUCCCAACCCAGCUCCCGCUCACCCCUGCCACGUCAAAGGAGGCAGAAGGGGAGUCGGGAGCGGAGAGGG</t>
         </is>
@@ -1174,22 +1230,25 @@
       <c r="D19" t="n">
         <v>3190</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>640</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>mmu-mir-147</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>UAUGAAUCUAGUGGAAACAUUUCUGCACAAACUAGAUGUUGAUGCCAGUGUGCGGAAAUGCUUCUGCUACAUUUGUAGG</t>
         </is>
@@ -1214,22 +1273,25 @@
       <c r="D20" t="n">
         <v>2191</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>1697</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>mmu-mir-6973b</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>GUAGGUAUGGGGAGAGGACAGGGAGUUGACAGUUUCCGAAUCCUUCCCAUCUGUGCUCUCUUACCCUUCCUAGGCAAGGC</t>
         </is>
@@ -1254,22 +1316,25 @@
       <c r="D21" t="n">
         <v>996</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>494</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>mmu-mir-3091</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>UGCUUGCGGGCCAUGGGUCUGGUUGGGCCCGCAGACUCGGAGUGCGGGCCUGACCAGUCUCAAGACCUGCGUGGUA</t>
         </is>
@@ -1294,22 +1359,25 @@
       <c r="D22" t="n">
         <v>117613</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>2970</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>mmu-mir-1897</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>AUUCUCCGUGCUUUGGAUGGAGAAAGAGGGGGGAAGUGCGAGCUCCUUCAACUCGUUCUGUCCGGUGAGGAGUGAUCCA</t>
         </is>
@@ -1334,22 +1402,25 @@
       <c r="D23" t="n">
         <v>198880</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>8413</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>mmu-mir-7225</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>ACGUAGACUGUGUAGAAGCCCUCUUGGCACUGCUUCUAGACAGCCUCUGCAGCA</t>
         </is>
@@ -1374,22 +1445,25 @@
       <c r="D24" t="n">
         <v>80996</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>5377</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>mmu-mir-7657</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>AAUAGUUGGAUAGUUAGGUAAAAUAACAGUCUUUUUCCUUGCUAUUCCCAACUUGGU</t>
         </is>
@@ -1414,22 +1488,25 @@
       <c r="D25" t="n">
         <v>57</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>57</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>mmu-mir-124b</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>GCAUUCACCGCGUGCCUUAAUUGUAUGACAUUAAAUCAAGGUCCGCUGUGAACACGG</t>
         </is>
@@ -1454,22 +1531,25 @@
       <c r="D26" t="n">
         <v>56</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>56</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>mmu-mir-12194</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>AGGAGACACAGUCCUUGCAGGCAGUUCCAGCACGUCUGUGGGUCUGUUUGUCCGUC</t>
         </is>
@@ -1494,22 +1574,25 @@
       <c r="D27" t="n">
         <v>65</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>65</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>mmu-mir-12195</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>UGGGUAUAACAGUCUUGGCUGGAAUUUUUGGGCUCAGUCUUCCAGACAAGACUGUUAUACCCAGC</t>
         </is>
@@ -1534,22 +1617,25 @@
       <c r="D28" t="n">
         <v>58</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>58</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>mmu-mir-9b-1</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>UUCGGUUAUCUAGCUUUAUGAAGACUCCACACCACUCAUACAGCUAGAUAACCAAAGA</t>
         </is>
@@ -1574,22 +1660,25 @@
       <c r="D29" t="n">
         <v>61</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>mmu-mir-3473h</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>UAGGGGCUGGAAAGGUGACUCAGUGGUUAAGAGCACUGACUGCUCUUCCAGAGGUCCUGAG</t>
         </is>
@@ -1614,22 +1703,25 @@
       <c r="D30" t="n">
         <v>123807</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>5341</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>mmu-mir-6402</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>GGGAUGGGAAUAUUAUAACUGUUUAGAGGGAGGUCAAAGAGGCACAGGCGCUCUCUGAGCAGUUUUCCCAGGAACCCGCA</t>
         </is>
@@ -1654,22 +1746,25 @@
       <c r="D31" t="n">
         <v>32189</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>mmu-mir-31</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>UGCUCCUGUAACUCGGAACUGGAGAGGAGGCAAGAUGCUGGCAUAGCUGUUGAACUGAGAACCUGCUAUGCCAACAUAUUGCCAUCUUUCCUGUCUGACAGCAGCU</t>
         </is>
@@ -1694,22 +1789,25 @@
       <c r="D32" t="n">
         <v>9725</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>748</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>mmu-mir-101a</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>AGGCUGCCCUGGCUCAGUUAUCACAGUGCUGAUGCUGUCCAUUCUAAAGGUACAGUACUGUGAUAACUGAAGGAUGGCAGCCA</t>
         </is>
@@ -1734,22 +1832,25 @@
       <c r="D33" t="n">
         <v>53992</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="n">
+        <v>4210</v>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>mmu-mir-5122</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>GUCCGCUACCGCGGGACCCGGGGCUGUGUCAGGUCUGGAAGUGGAGCUGGAGCUGACCGAAGGAGCUGCCGCUGGGCCGGGGUGGAACA</t>
         </is>
@@ -1774,22 +1875,25 @@
       <c r="D34" t="n">
         <v>5854</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="n">
+        <v>5854</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>mmu-mir-2139</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>AGAAGGAGCAGAGGGCCAGGACUGGCAUUUGGACAUGCAGCUGCCCAGCAAGGUGGUGCUGUCCGCAGCUGCGCUGCUCCUGGUAACUGCGGCUU</t>
         </is>
@@ -1814,22 +1918,25 @@
       <c r="D35" t="n">
         <v>55</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="n">
+        <v>55</v>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>mmu-mir-12196</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>UCCUUUCUAGCUCACCUGUGACUGAGCUGAGAGUCACAGGUGAGCUAGAAAGUAU</t>
         </is>
@@ -1854,22 +1961,25 @@
       <c r="D36" t="n">
         <v>7088</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>mmu-mir-429</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>CCUGCUGAUGGAUGUCUUACCAGACAUGGUUAGAUCUGGAUGCAUCUGUCUAAUACUGUCUGGUAAUGCCGUCCAUCCACGGC</t>
         </is>
@@ -1894,22 +2004,25 @@
       <c r="D37" t="n">
         <v>5814</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="n">
+        <v>3014</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>mmu-mir-7658</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>UGUGGGCGUGGCGGUGCUGGAGCUGCUCAACUUCCCACCACCUUCCUCACCCACGCU</t>
         </is>
@@ -1934,22 +2047,25 @@
       <c r="D38" t="n">
         <v>40363</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="n">
+        <v>4920</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>mmu-mir-8115</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>CCCUGGAACUGGAACUGCAGGUGGUUGGGAGCCACCAUGGUGGUGUUGGGAAGUGAACUUGAGUCCUCCGCAAUAGCAACAAGGGCUCUUAACUACUGAGCCAUCUCUCCACCUUCAAA</t>
         </is>
@@ -1974,22 +2090,25 @@
       <c r="D39" t="n">
         <v>57</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="n">
+        <v>57</v>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>mmu-mir-12197</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>CUUCUCUGCAGUGCUGCCUUCUCUCUAGACUGUGAGUGGCGGGGCUGGGGACAUCGC</t>
         </is>
@@ -2014,22 +2133,25 @@
       <c r="D40" t="n">
         <v>7655</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="n">
+        <v>5371</v>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>mmu-mir-671</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>UGGCAGGCCAGGAAGAGGAGGAAGCCCUGGAGGGGCUGGAGGUGAUGGAUGUUUUCCUCCGGUUCUCAGGGCUCCACCUCUUUCGAGCCGUAGAGCCA</t>
         </is>
@@ -2054,22 +2176,25 @@
       <c r="D41" t="n">
         <v>62</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="n">
+        <v>62</v>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>mmu-mir-12198</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>AGAGCACACGUCCAGCCAGAGUUCCUGUGCUCUAGGCGAGCAGACUCAGGAGGACUGCCGGA</t>
         </is>
@@ -2094,22 +2219,25 @@
       <c r="D42" t="n">
         <v>63</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="n">
+        <v>63</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>mmu-mir-12199</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>GGAACCAGAGAGAAUCCGGAGUGCUGGGUUCAGGAACUUCACACUGGUUCUCUCUGGCUCUCC</t>
         </is>
@@ -2134,22 +2262,25 @@
       <c r="D43" t="n">
         <v>56</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="n">
+        <v>56</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>mmu-mir-12200</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>AAACAAACCAGAGGCUCACACUGAUGAUUGUCAUAGUGUGAAUCUCCGGCGCGUUU</t>
         </is>
@@ -2174,22 +2305,25 @@
       <c r="D44" t="n">
         <v>6220</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="n">
+        <v>2879</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>mmu-mir-8116</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>GAGCCUGGUGUUGAGGGGAGAAGGAUCCGGGGCUAGUUGGCGUCAGCCAAAGGGCCUUAUAAUCGCCAACUAUUUCUGUAUCUUCUCUCUUUUCCCC</t>
         </is>
@@ -2214,22 +2348,25 @@
       <c r="D45" t="n">
         <v>22677</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="n">
+        <v>1082</v>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>mmu-mir-7649</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>UGACAGCAGUGCUGUAGACAUGGUCUCUCAGCAUCUCUCCAGCACUGCUUGUUUCU</t>
         </is>
@@ -2254,22 +2391,25 @@
       <c r="D46" t="n">
         <v>78839</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="n">
+        <v>14669</v>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>mmu-mir-7670</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>AUUCAGAUGGGCAGAUUGGGAAGUAGUCUUUGCACAUGAUGCUGGCUUCCCUUUCUGAAUAUCUGUAGA</t>
         </is>
@@ -2294,22 +2434,25 @@
       <c r="D47" t="n">
         <v>39673</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="n">
+        <v>6124</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>mmu-mir-705</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>AUGUCCCAGUAGUGGUGGGAGGUGGGGUGGGCACAGAGGGAAUGACUUCUUUCUCCUGCAGUCCUCCCUACCUCCCUAACAU</t>
         </is>
@@ -2334,22 +2477,25 @@
       <c r="D48" t="n">
         <v>58</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="n">
+        <v>58</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>mmu-mir-12201</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>UGGAAGGAUGCCUCUUGCAGAUGUAGCAGAGGAGGUAUCUGCAGAGGCUUCCUUGGCU</t>
         </is>
@@ -2374,22 +2520,25 @@
       <c r="D49" t="n">
         <v>22225</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="n">
+        <v>2116</v>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>mmu-mir-935</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>GGCGGCGGCGCGGGCGGCAGUGGCGGGAGCGGCCCCUCGGCCAUCCUCCGUCUGCCCAGUUACCGCUUCCGCUACCGCCGCCGCUCCCGCU</t>
         </is>
@@ -2414,22 +2563,25 @@
       <c r="D50" t="n">
         <v>31129</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="n">
+        <v>4901</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>mmu-mir-292b</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>ACUCAAAACCUGGCGGCACUUUUCUUCCGAUGAAAAUCCAAAAGAGCCCCCAGUUUGAGUAU</t>
         </is>
@@ -2454,22 +2606,25 @@
       <c r="D51" t="n">
         <v>2232</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>mmu-mir-291a</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>CCUAUGUAGCGGCCAUCAAAGUGGAGGCCCUCUCUUGAGCCUGAAUGAGAAAGUGCUUCCACUUUGUGUGCCACUGCAUGGG</t>
         </is>
@@ -2494,22 +2649,25 @@
       <c r="D52" t="n">
         <v>2232</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>mmu-mir-292a</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>CAGCCUGUGAUACUCAAACUGGGGGCUCUUUUGGAUUUUCAUCGGAAGAAAAGUGCCGCCAGGUUUUGAGUGUCACCGGUUG</t>
         </is>
@@ -2534,22 +2692,25 @@
       <c r="D53" t="n">
         <v>2232</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>mmu-mir-291b</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>ACAUACAGUGUCGAUCAAAGUGGAGGCCCUCUCCGCGGCUUGGCGGGAAAGUGCAUCCAUUUUGUUUGUCUCUGUGUGU</t>
         </is>
@@ -2574,22 +2735,25 @@
       <c r="D54" t="n">
         <v>2232</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>mmu-mir-293</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>UUCAAUCUGUGGUACUCAAACUGUGUGACAUUUUGUUCUUUGUAAGAAGUGCCGCAGAGUUUGUAGUGUUGCCGAUUGAG</t>
         </is>
@@ -2614,22 +2778,25 @@
       <c r="D55" t="n">
         <v>2232</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>mmu-mir-294</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>UUCCAUAUAGCCAUACUCAAAAUGGAGGCCCUAUCUAAGCUUUUAAGUGGAAAGUGCUUCCCUUUUGUGUGUUGCCAUGUGGAG</t>
         </is>
@@ -2654,22 +2821,25 @@
       <c r="D56" t="n">
         <v>2232</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>mmu-mir-295</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>GGUGAGACUCAAAUGUGGGGCACACUUCUGGACUGUACAUAGAAAGUGCUACUACUUUUGAGUCUCUCC</t>
         </is>
@@ -2694,22 +2864,25 @@
       <c r="D57" t="n">
         <v>66</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="n">
+        <v>66</v>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>mmu-mir-12202</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>UGGUGCCUGGAUUGGAGGAUGAGAAUAUUUAUUAUUCAGAUCGCUCUUCUCUUUCCAGUCAUCAGC</t>
         </is>
@@ -2734,22 +2907,25 @@
       <c r="D58" t="n">
         <v>12427</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="n">
+        <v>6278</v>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>mmu-mir-1191a</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>UGGAACCAGCCUGGUCUACAUAGCAACAUCUAAGCCAGCCAGGGCUACAUAGUGAGAACCUGCCUCAAAAGCAAAACAGCAGUCUUACUAUGUAGCCCUAGAUGGCCUAGAACUCCCUAU</t>
         </is>
@@ -2774,22 +2950,25 @@
       <c r="D59" t="n">
         <v>2904</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>mmu-mir-9769</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>GGCUGAGUCAGAGGCACAGAAUUAGGCCCGACCUACUCUGGGGUAGGGUCUGUUCUGUGUCCUCCUGACUGCCUGGC</t>
         </is>
@@ -2814,22 +2993,25 @@
       <c r="D60" t="n">
         <v>5787</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" t="n">
+        <v>1839</v>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>mmu-mir-707</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>GGCAUGCAGUCAUGCCGCUUGCCUACGCUUGUGUGAGCAUGGGCAUGCGGUCAUAGUUGUUGCGGGCAAUUCG</t>
         </is>
@@ -2854,22 +3036,25 @@
       <c r="D61" t="n">
         <v>58</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="n">
+        <v>58</v>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>mmu-mir-9b-3</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>UUCGGUUAUCUAGCUUUAUGACGGCUCUGUGGCACUCAUACAGCUAGAUAACCAAAGA</t>
         </is>
@@ -2894,22 +3079,25 @@
       <c r="D62" t="n">
         <v>63</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="n">
+        <v>63</v>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>mmu-mir-12203</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>UGCCGGAGGGAUCGAUUGCUUCUCCUUUUCCAGCAAAGGAUGGAAUCUCUCCCUCUGGUCUGA</t>
         </is>
@@ -2934,22 +3122,25 @@
       <c r="D63" t="n">
         <v>2617</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" t="n">
+        <v>2288</v>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>mmu-mir-675</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>UGCGGCCCAGGGACUGGUGCGGAAAGGGCCCACAGUGGACUUGGUACACUGUAUGCCCUAACCGCUCAGUCCCUGGGUCUGGCA</t>
         </is>
@@ -2974,22 +3165,25 @@
       <c r="D64" t="n">
         <v>46991</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="n">
+        <v>7788</v>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>mmu-mir-8108</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>ACUCAUGCAUGUGUUCUCUACAUUCUGCCGCUUUUCCCCUGAGGCAUAUCCAGAUAAGACCCUCUGGGGAGGAGCGUAGUUACAGAAAGAAAUGUAGGCUCUUAUUUUG</t>
         </is>
@@ -3014,22 +3208,25 @@
       <c r="D65" t="n">
         <v>72625</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>mmu-mir-9768</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>AGCCGCAGCCUGUGGCACUCGGAGGACGGCACUGUGCAGCAAAGCCAGGGAGGCGUAGUAUCCCCAAGCAGCAAGCAGCCCAAGAUGGAGCUCCACUGCCUUCCUUUGUGUGGCCCAGGCGGGCUGGCCG</t>
         </is>
@@ -3054,22 +3251,25 @@
       <c r="D66" t="n">
         <v>146879</v>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" t="n">
+        <v>6026</v>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>mmu-mir-1903</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>UUUUUUUCCUCCUUCUUCUUCUUCCUGAGACAUGGCCCGGGCAGUGGCUCCUGGAAGAGGAACAAGUGUGGGAAAAGGGA</t>
         </is>
@@ -3094,22 +3294,25 @@
       <c r="D67" t="n">
         <v>23962</v>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>mmu-mir-7654</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>GGAGUCGCGCUCCCGCUCGCGCUCCACCAACGCGGCGGCAUCCCGGCGCGAGCGGGAGCGCGCCUCGUCC</t>
         </is>
@@ -3134,22 +3337,25 @@
       <c r="D68" t="n">
         <v>1493</v>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" t="n">
+        <v>907</v>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>mmu-mir-1199</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>AGCCUGCGCCGGAGCCGGGGUCUGAGUCCCGGUCGCGCGGGCGAGGAACUCAUUGAGUUGCGCGUGCGGCCGGUGCUCAGUCGGCCCGGCUCCGGUACUCCGCUGCCGCGCGCCCUGGA</t>
         </is>
@@ -3174,22 +3380,25 @@
       <c r="D69" t="n">
         <v>59626</v>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="n">
+        <v>15951</v>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>mmu-mir-138-2</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>CAGCUGGUGUUGUGAAUCAGGCCGACGAGCAGCGCAUCCUCUUACCCGGCUAUUUCACGACACCAGGGUUG</t>
         </is>
@@ -3214,22 +3423,25 @@
       <c r="D70" t="n">
         <v>46</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" t="n">
+        <v>46</v>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>mmu-mir-12204</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>UUGAGUCUUAGAUGAGUGUCUGGUUAUAGUCCCCUGAGAAGCACAG</t>
         </is>
@@ -3254,22 +3466,25 @@
       <c r="D71" t="n">
         <v>59</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" t="n">
+        <v>59</v>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>mmu-mir-7650</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>AAUCCUCUUGCAACCCAGAACUCAUUGCUCAGUAUGAGUUUUGAUAUAUACAAGAAGGA</t>
         </is>
@@ -3294,22 +3509,25 @@
       <c r="D72" t="n">
         <v>2325</v>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" t="n">
+        <v>2197</v>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>mmu-mir-7084</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>GCUUCUAGAGGAUAGAGGUAGAGAGUGGCCAGCUGCUGCCAGCCUCUGACCCCUGUCCUCUGCACCACAG</t>
         </is>
@@ -3334,22 +3552,25 @@
       <c r="D73" t="n">
         <v>65366</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" t="n">
+        <v>4853</v>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>mmu-mir-5133</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>CGCCGAGAGGCUGGAGCUGCGGCAGCGCAGGCCUGGGCCGCCGUGUCUCUGCCGCUCGCUUCAGUUUUCCUCAGGGC</t>
         </is>
@@ -3374,22 +3595,25 @@
       <c r="D74" t="n">
         <v>60</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" t="n">
+        <v>60</v>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>mmu-mir-1970c</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>UGUGUCACUGGGGUUAUGCUUUGAGGUUUCUAACUCUCAAGCCGGGCCUAGUGACUCUCU</t>
         </is>
@@ -3414,22 +3638,25 @@
       <c r="D75" t="n">
         <v>60</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" t="n">
+        <v>60</v>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>mmu-mir-12205</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>UGUGUUUCCCAGUUGGUUUGAAAGAUGGUCAGCAUGUCAAACCAACUGGGAAACACAAAU</t>
         </is>
@@ -3454,22 +3681,25 @@
       <c r="D76" t="n">
         <v>67</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" t="n">
+        <v>67</v>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>mmu-mir-12206</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>UACUAUGCCUGGAAGGCACCAAGCUCUGCCUCUUGGCAGAAGUGGCUUCUGUUUGCAUAGUUAUGGC</t>
         </is>
@@ -3494,22 +3724,25 @@
       <c r="D77" t="n">
         <v>5290</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" t="n">
+        <v>3933</v>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>mmu-mir-425</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>AAAGUGCUUUGGAAUGACACGAUCACUCCCGUUGAGUGGGCACCCAAGAAGCCAUCGGGAAUGUCGUGUCCGCCCAGUGCUCUUU</t>
         </is>
@@ -3534,22 +3767,25 @@
       <c r="D78" t="n">
         <v>5290</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" t="n">
+        <v>4059</v>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>mmu-mir-191</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>AGCGGGCAACGGAAUCCCAAAAGCAGCUGUUGUCUCCAGAGCAUUCCAGCUGCACUUGGAUUUCGUUCCCUGCU</t>
         </is>
@@ -3574,22 +3810,25 @@
       <c r="D79" t="n">
         <v>45447</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" t="n">
+        <v>8657</v>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>mmu-mir-7673</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>UUUGACUGAGAGGUAAGGAAUGAGUUAUACUGUGUUACUCAUUCCUUACCUCACCGUCAAAGGA</t>
         </is>
@@ -3614,22 +3853,25 @@
       <c r="D80" t="n">
         <v>134113</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" t="n">
+        <v>14425</v>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>mmu-mir-3113</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>GGCCCUGGCCCGGGUCCUGGCCCUGGUCCGGGUCCUGGCCCUGGUCCUGGCCCUGGUCCUGGUCCUGGCCCUGGCC</t>
         </is>
@@ -3654,22 +3896,25 @@
       <c r="D81" t="n">
         <v>4079</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" t="n">
+        <v>2993</v>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>mmu-mir-351</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>CAUGGCACCUCCGUUUCCCUGAGGAGCCCUUUGAGCCUGGAGUGAAAAAAAAAAACAGGUCAAGAGGCGCCUGGGAACUGGAGAAGAGUGUUAAACUUC</t>
         </is>
@@ -3694,22 +3939,25 @@
       <c r="D82" t="n">
         <v>4079</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" t="n">
+        <v>2993</v>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>mmu-mir-503</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>UGCCCUAGCAGCGGGAACAGUACUGCAGUGAGUGUUUGGUGCCCUGGAGUAUUGUUUCCACUGCCUGGGUA</t>
         </is>
@@ -3734,22 +3982,25 @@
       <c r="D83" t="n">
         <v>4079</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" t="n">
+        <v>2993</v>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>mmu-mir-322</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>CCUCGUUGACUCCGAAGGGCUGCAGCAGCAAUUCAUGUUUUGGAGUAUUGCCAAGGUUCAAAACAUGAAGCGCUGCAACACCCCUUCGUGGGGAA</t>
         </is>
@@ -3774,22 +4025,25 @@
       <c r="D84" t="n">
         <v>12433</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" t="n">
+        <v>4109</v>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>mmu-mir-5116</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>AUUUUGAUAGGAACCCCGCCUGAUGCUUUUUGGUUUGUUUCAGGCAGGGUCUUCAUAUCGAGA</t>
         </is>
@@ -3814,22 +4068,25 @@
       <c r="D85" t="n">
         <v>3717</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" t="n">
+        <v>2777</v>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>mmu-mir-223</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>UCUGGCCAUCUGCAGUGUCACGCUCCGUGUAUUUGACAAGCUGAGUUGGACACUCUGUGUGGUAGAGUGUCAGUUUGUCAAAUACCCCAAGUGUGGCUCAUGCCUAUCAG</t>
         </is>
@@ -3854,22 +4111,25 @@
       <c r="D86" t="n">
         <v>16688</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" t="n">
+        <v>2756</v>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>mmu-mir-3112</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>CUAAAUGAACAGUGACAUAGAAAAGGCAGUCUGCAUUUAUUCUGGAGCUGCAGUUUGUCUCUUCUUUGUCUCUGUCAGUUGG</t>
         </is>
@@ -3894,22 +4154,25 @@
       <c r="D87" t="n">
         <v>4637</v>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" t="n">
+        <v>2826</v>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>mmu-mir-7646</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>ACAAGAGAACUGAUCAGUGCUGAAGUAAUGUCCUCACUGGUCGCUCUCUUUCAC</t>
         </is>
@@ -3934,22 +4197,25 @@
       <c r="D88" t="n">
         <v>105</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" t="n">
+        <v>105</v>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>mmu-mir-3552</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>UGUGAAUCCAGCUGGUUCAAGGCUGCAGGCCCACUUCCCUUGGCAGAUUUUUCCAUUUCAGGGAGUGGGGAAAGUGGCCCUAAACCAUCAAAAUGGAUUAUACAU</t>
         </is>
@@ -3974,22 +4240,25 @@
       <c r="D89" t="n">
         <v>83</v>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" t="n">
+        <v>83</v>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>mmu-mir-1911</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>GCUGGGCAUCUGUUGAGUACAGCCAUGUCUGUUGGGCAUCUACAGUCUUCCACCAGGCAUUGUGGUCUCUGCUGACUCUCUGU</t>
         </is>
@@ -4014,22 +4283,25 @@
       <c r="D90" t="n">
         <v>185889</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" t="n">
+        <v>3075</v>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>mmu-mir-8104</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>CCGGAGUUCCUCGGGCUGUCUCAGGAUGAGGUGGAGUGCAGCGCAGACCACAUCGCCCGCCCCAUCCUCAUCCUCAAGGAGACCCGGCGGCUGCCCUGGGC</t>
         </is>
@@ -4054,22 +4326,25 @@
       <c r="D91" t="n">
         <v>74221</v>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" t="n">
+        <v>13956</v>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>mmu-mir-331</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>GAGUCUGGUUUUGUUUGGGUUUGUUCUAGGUAUGGUCCCAGGGAUCCCAGAUCAAACCAGGCCCCUGGGCCUAUCCUAGAACCAACCUAAACCCGU</t>
         </is>
@@ -4094,22 +4369,25 @@
       <c r="D92" t="n">
         <v>7131</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" t="n">
+        <v>1599</v>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>mmu-mir-7662</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>AGGGCUGAGGCCUGGAUCCAGCAUACUGCUUCAGAGCUGGAGCCAGGCGGAUCAGCCUUGC</t>
         </is>
@@ -4134,22 +4412,25 @@
       <c r="D93" t="n">
         <v>55096</v>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" t="n">
+        <v>2796</v>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>mmu-mir-6409</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>GACGAGCAAUAACAGCUAGCGCGCAUGCGUGGACCAGAGACAAAGCUGUCCCCGUGUUUACAAACUGUGCGGGUGAGGAUGUGUGCUCCUCU</t>
         </is>
@@ -4174,22 +4455,25 @@
       <c r="D94" t="n">
         <v>30640</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>mmu-mir-678</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>GUGGACUGUGACUUGCAGAGCUGUGCUCCAAUAUGAGAGAUGGCCAUGCACCCGUGUCUCGGUGCAAGGACUGGAGGUGGCAGU</t>
         </is>
@@ -4214,22 +4498,25 @@
       <c r="D95" t="n">
         <v>69</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" t="n">
+        <v>69</v>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t>mmu-mir-12180</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>AGUGUUCCAGCAUGGAAGGGGAGGGGUUCCUGAGCUUGUGUCUUUAACCAAGGAGCUGUGGACACUUGA</t>
         </is>
@@ -4254,22 +4541,25 @@
       <c r="D96" t="n">
         <v>21259</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>mmu-mir-546</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>CCUCUCUUCCCAAAACUAAACAGGAUCUAUCAUGGUGGCACGGAGUCAGCUAGAUGUUGUCUCUUGCUAUCCCUGUGCUAGUUCCAUGUUUUAGAAGCAAAGUGAUACUGGGGAGGAGAGG</t>
         </is>
@@ -4294,22 +4584,25 @@
       <c r="D97" t="n">
         <v>87324</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" t="n">
+        <v>2787</v>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t>mmu-mir-21a</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>UGUACCACCUUGUCGGAUAGCUUAUCAGACUGAUGUUGACUGUUGAAUCUCAUGGCAACAGCAGUCGAUGGGCUGUCUGACAUUUUGGUAUC</t>
         </is>
@@ -4334,22 +4627,25 @@
       <c r="D98" t="n">
         <v>97052</v>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" t="n">
+        <v>17286</v>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>mmu-mir-1932</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>GCAGGCAGCCGGUCCAGCCUGGCCCUGAGUCUCCGACCCCAUUAACUCUCGGGUUGCGGACAGCGCUAGGUCGGCCCUGCUCCCCAGCAA</t>
         </is>
@@ -4374,22 +4670,25 @@
       <c r="D99" t="n">
         <v>5152</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="n">
+        <v>1766</v>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>mmu-mir-22</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>ACCUGGCUGAGCCGCAGUAGUUCUUCAGUGGCAAGCUUUAUGUCCUGACCCAGCUAAAGCUGCCAGUUGAAGAACUGUUGCCCUCUGCCCCUGGC</t>
         </is>
@@ -4414,22 +4713,25 @@
       <c r="D100" t="n">
         <v>4061</v>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E100" t="n">
+        <v>3269</v>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>mmu-mir-7653</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>UAAGGGGCGGACAGACAGACGGCAGGAAGGGUCAGCAUGCCCCUACUGUUCCACCCCGCCU</t>
         </is>
@@ -4454,22 +4756,25 @@
       <c r="D101" t="n">
         <v>55</v>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="n">
+        <v>55</v>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>mmu-mir-12182</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>UACAGCGCCAGCUGCCUAAUUGAUUGUCUCUGUUAAUUAGGCUCUGGAUCUGUGA</t>
         </is>
@@ -4494,22 +4799,25 @@
       <c r="D102" t="n">
         <v>48782</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" t="n">
+        <v>8382</v>
+      </c>
+      <c r="F102" t="inlineStr">
         <is>
           <t>mmu-mir-3063</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>GGCAUUUGGGCCUGGCUGGAGAUCAGGUUUGCACACUGUCUUGAGAACAAUGUUCCAGUGAGGAAUCCUGAUCUCUCGCCCCCAAUUGAGCC</t>
         </is>
@@ -4534,22 +4842,25 @@
       <c r="D103" t="n">
         <v>77045</v>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" t="n">
+        <v>20896</v>
+      </c>
+      <c r="F103" t="inlineStr">
         <is>
           <t>mmu-mir-5119</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>CAGGGCUGGCCUAUGGGACAGAUACUAUAAGUCAUCUCAUCCUGGGGCUGGGUCUGC</t>
         </is>
@@ -4574,22 +4885,25 @@
       <c r="D104" t="n">
         <v>34415</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" t="n">
+        <v>3712</v>
+      </c>
+      <c r="F104" t="inlineStr">
         <is>
           <t>mmu-mir-8101</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>CUCCGAAUGUUGUUGUUGGUGGCGGCGGCGAGCGGAGCCGGAGGAGCCGCCGCAAAGAUGGAGGAGCCGUCGAGGAGGCGCUGCCGCUGCUGUUGCCGCCGCUGCUGCCGC</t>
         </is>
@@ -4614,22 +4928,25 @@
       <c r="D105" t="n">
         <v>39519</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" t="n">
+        <v>30700</v>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>mmu-mir-3544</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>AGAAAGGCAUCAUAUAGGAGCUGAAUGGCUGUGCAAUCAACUCCUGCAUGACGCCGUUCCC</t>
         </is>
@@ -4654,22 +4971,25 @@
       <c r="D106" t="n">
         <v>39519</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" t="n">
+        <v>30700</v>
+      </c>
+      <c r="F106" t="inlineStr">
         <is>
           <t>mmu-mir-3071</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>GAACCCUCUGAAGACUCAUUUGAGACGAUGAUGGAGCUUAAGAAUCCAUCAUCAAAACAAAUGGAGUCCUCCGAGGGCUC</t>
         </is>
@@ -4694,22 +5014,25 @@
       <c r="D107" t="n">
         <v>11199</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" t="n">
+        <v>1363</v>
+      </c>
+      <c r="F107" t="inlineStr">
         <is>
           <t>mmu-mir-1892</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>UGGAUAUAUUUCUACUCUUGACCAAAGUUUUGUAAGAAACAAUACAGAAUUUGGGGACGGGAGGGAGGAUACUUUGAGAA</t>
         </is>
@@ -4734,22 +5057,25 @@
       <c r="D108" t="n">
         <v>64</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" t="n">
+        <v>64</v>
+      </c>
+      <c r="F108" t="inlineStr">
         <is>
           <t>mmu-mir-9718</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>GCCCGGUCUCUUUGCCUCCGGUUCUUAAACCAGUUGCUGACCUGGGUGGUGGUGAGGCCGGUGG</t>
         </is>
@@ -4774,22 +5100,25 @@
       <c r="D109" t="n">
         <v>124</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" t="n">
+        <v>124</v>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>mmu-mir-1843a</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>GAAUAUGGAGGUCUCUGUCUGACUUAGAAUAGCUGGCUGAGUCUGAUCGUUCACCUCCAUACAAC</t>
         </is>
@@ -4814,22 +5143,25 @@
       <c r="D110" t="n">
         <v>48</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" t="n">
+        <v>48</v>
+      </c>
+      <c r="F110" t="inlineStr">
         <is>
           <t>mmu-mir-12183</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>GCUUCUUCUCUGUCCUGAGUAGGAGUGUUAGCGGGAGAGGAGCUGCUC</t>
         </is>
@@ -4854,22 +5186,25 @@
       <c r="D111" t="n">
         <v>275</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" t="n">
+        <v>275</v>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t>mmu-mir-3069</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>CUUGGCAGUCAAGAUAUUGUUUAGCAGACGGAGCGGUUUCUGUUGGACACUAAGUACUGCCACAA</t>
         </is>
@@ -4894,22 +5229,25 @@
       <c r="D112" t="n">
         <v>27656</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" t="n">
+        <v>11461</v>
+      </c>
+      <c r="F112" t="inlineStr">
         <is>
           <t>mmu-mir-1906-1</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>GGACAUUAGGAGCAACCUCCUAGGGUUGUUGUGAGAAUUAAAUGAACUGCAGCAGCCUGAGGCAGGGCUGGGCAGAGACC</t>
         </is>
@@ -4934,22 +5272,25 @@
       <c r="D113" t="n">
         <v>27656</v>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E113" t="n">
+        <v>11461</v>
+      </c>
+      <c r="F113" t="inlineStr">
         <is>
           <t>mmu-mir-770</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>GCCACCUUCUGUGCCCCCAGCACCACGUGUCUGGGCCACGUGAGCAACGCCACGUGGGCCUGACGUGGAGCUGGGGCCGCAGGGGUCUGAUGGC</t>
         </is>
@@ -4974,22 +5315,25 @@
       <c r="D114" t="n">
         <v>1315</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" t="n">
+        <v>1315</v>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>mmu-mir-433</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>UGCCCGGGGAGAAGUACGGUGAGCCUGUCAUUAUUCAGAGAGGCUAGAUCCUCUGUGUUGAGAAGGAUCAUGAUGGGCUCCUCGGUGUUCUCCAGGUAGCGGCACCACACCAUGAAGGCAGCCC</t>
         </is>
@@ -5014,22 +5358,25 @@
       <c r="D115" t="n">
         <v>14478</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F115" t="inlineStr">
         <is>
           <t>mmu-mir-410</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>GGGUACUUGAGGAGAGGUUGUCUGUGAUGAGUUCGCUUUAUUAAUGACGAAUAUAACACAGAUGGCCUGUUUUCAAUACCA</t>
         </is>
@@ -5054,22 +5401,25 @@
       <c r="D116" t="n">
         <v>60</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" t="n">
+        <v>60</v>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>mmu-mir-203b</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>AGUGGUCCUAAACAUUUCACAAUUGUGCUACAGAACUGUUGAACUGUCAAGAACCACUGG</t>
         </is>
@@ -5094,22 +5444,25 @@
       <c r="D117" t="n">
         <v>337985</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" t="n">
+        <v>6765</v>
+      </c>
+      <c r="F117" t="inlineStr">
         <is>
           <t>mmu-mir-23b</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>GGCUGCUUGGGUUCCUGGCAUGCUGAUUUGUGACUUGAGAUUAAAAUCACAUUGCCAGGGAUUACCACGCAACC</t>
         </is>
@@ -5134,22 +5487,25 @@
       <c r="D118" t="n">
         <v>337985</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" t="n">
+        <v>6765</v>
+      </c>
+      <c r="F118" t="inlineStr">
         <is>
           <t>mmu-mir-27b</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>AGGUGCAGAGCUUAGCUGAUUGGUGAACAGUGAUUGGUUUCCGCUUUGUUCACAGUGGCUAAGUUCUGCACCU</t>
         </is>
@@ -5174,22 +5530,25 @@
       <c r="D119" t="n">
         <v>337985</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" t="n">
+        <v>6765</v>
+      </c>
+      <c r="F119" t="inlineStr">
         <is>
           <t>mmu-mir-24-1</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>CUCCGGUGCCUACUGAGCUGAUAUCAGUUCUCAUUUCACACACUGGCUCAGUUCAGCAGGAACAGGAG</t>
         </is>
@@ -5214,22 +5573,25 @@
       <c r="D120" t="n">
         <v>6360</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" t="n">
+        <v>3209</v>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t>mmu-mir-1896</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>AAGGCUUUCCCACACUCAUUACAGUGAUGUCUUUUGGAACGACCAUGGACUCUCUGAUGGUGGGUGAGGAGGAGGGCCCGA</t>
         </is>
@@ -5254,22 +5616,25 @@
       <c r="D121" t="n">
         <v>83</v>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E121" t="n">
+        <v>83</v>
+      </c>
+      <c r="F121" t="inlineStr">
         <is>
           <t>mmu-mir-1271</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>ACCCAGGUGAGUGCUUGGCACCUGGUAAGCACUCAGUAAGUAUUUGAUGAGUGCCUACUGUGUGCCAAGACAUUGUGCUGAGG</t>
         </is>
@@ -5294,22 +5659,25 @@
       <c r="D122" t="n">
         <v>19928</v>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E122" t="n">
+        <v>3590</v>
+      </c>
+      <c r="F122" t="inlineStr">
         <is>
           <t>mmu-mir-9-2</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>GUUGUUAUCUUUGGUUAUCUAGCUGUAUGAGUGUAUUGGUCUUCAUAAAGCUAGAUAACCGAAAGUAAAAAC</t>
         </is>
@@ -5334,22 +5702,25 @@
       <c r="D123" t="n">
         <v>56</v>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E123" t="n">
+        <v>56</v>
+      </c>
+      <c r="F123" t="inlineStr">
         <is>
           <t>mmu-mir-9b-2</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>UUCGGUUAUCUAGCUUUAUGAAGACCAAUACACUCAUACAGCUAGAUAACCAAAGA</t>
         </is>
@@ -5374,22 +5745,25 @@
       <c r="D124" t="n">
         <v>123849</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" t="n">
+        <v>6589</v>
+      </c>
+      <c r="F124" t="inlineStr">
         <is>
           <t>mmu-mir-8098</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>GCCGGCUUGCGGCUAGUGUGGCGGCGGUGUUGGUUUUGGAAGCCAGAGCGGGCACAUUCCCUGGACAGGCGGCAGGGCUAUGGUCGCUGGCUCCCAAAGGCCCGCUCCGCUUCGCAGCCCGAUCCUGAGCGCAAGCC</t>
         </is>
@@ -5414,22 +5788,25 @@
       <c r="D125" t="n">
         <v>64973</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" t="n">
+        <v>5173</v>
+      </c>
+      <c r="F125" t="inlineStr">
         <is>
           <t>mmu-mir-5131</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>GGCGGCGGCGUCGGAUGCGCGUGUGGCGGAAGCGCCGGCGGCAUGAACUACCCGGGCCGCGGCGCCCCACGGAGCCCCGAGCGUAACGGCCGC</t>
         </is>
@@ -5454,22 +5831,25 @@
       <c r="D126" t="n">
         <v>5730</v>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E126" t="n">
+        <v>3529</v>
+      </c>
+      <c r="F126" t="inlineStr">
         <is>
           <t>mmu-mir-7672</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>CGGUGGACUUGACAGCGGGCGACUCUGGAUCUCUGAUCUCGUCGGCUGCCAGGUUCAUGUGG</t>
         </is>
@@ -5494,22 +5874,25 @@
       <c r="D127" t="n">
         <v>3876</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" t="n">
+        <v>871</v>
+      </c>
+      <c r="F127" t="inlineStr">
         <is>
           <t>mmu-mir-686</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>GCCACAGCAGGUGCUUAUAUUGCUUCCCAGACGGUGAAGAAAGUAAUAGAGAUCAACCCGUACCUUCUGGGCACCAUGGCUGGGGGUGCAGCGGAUUGCAGCUUCUGGG</t>
         </is>
@@ -5534,22 +5917,25 @@
       <c r="D128" t="n">
         <v>57</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" t="n">
+        <v>57</v>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>mmu-mir-12185</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>CUUGGGGGCAGAGGUGGCACGGUGUUUGUUGUAACUCAGCCACUGUGUCCCCUCCUU</t>
         </is>
@@ -5574,22 +5960,25 @@
       <c r="D129" t="n">
         <v>5847</v>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E129" t="n">
+        <v>4039</v>
+      </c>
+      <c r="F129" t="inlineStr">
         <is>
           <t>mmu-mir-124-1</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>AGGCCUCUCUCUCCGUGUUCACAGCGGACCUUGAUUUAAAUGUCCAUACAAUUAAGGCACGCGGUGAAUGCCAAGAAUGGGGCUG</t>
         </is>
@@ -5614,22 +6003,25 @@
       <c r="D130" t="n">
         <v>5847</v>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E130" t="n">
+        <v>4039</v>
+      </c>
+      <c r="F130" t="inlineStr">
         <is>
           <t>mmu-mir-3078</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>ACUGGCAGACUGCCCCAAAGCCUAGACUGCAGCUACCUUGUAUUGUGCUUGGGGUUGCUGGGGUAGUCUUUAGGGGAAGCUGUUUGU</t>
         </is>
@@ -5654,22 +6046,25 @@
       <c r="D131" t="n">
         <v>6057</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" t="n">
+        <v>6057</v>
+      </c>
+      <c r="F131" t="inlineStr">
         <is>
           <t>mmu-mir-5130</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>CCUGGAGCGCGCGGGCGAGGCAGGCGCAGCGCACCGGGGCUCUCGUGGGCGCACUGCUGCGCGCUCGCACCGCGCGGCUCUCAG</t>
         </is>
@@ -5694,22 +6089,25 @@
       <c r="D132" t="n">
         <v>2339</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" t="n">
+        <v>2339</v>
+      </c>
+      <c r="F132" t="inlineStr">
         <is>
           <t>mmu-mir-92a-1</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>CUUUCUACACAGGUUGGGAUUUGUCGCAAUGCUGUGUUUCUCUGUAUGGUAUUGCACUUGUCCCGGCCUGUUGAGUUUGG</t>
         </is>
@@ -5734,22 +6132,25 @@
       <c r="D133" t="n">
         <v>229774</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" t="n">
+        <v>17333</v>
+      </c>
+      <c r="F133" t="inlineStr">
         <is>
           <t>mmu-mir-5113</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>UAGGGAUGGGACAGAGGAGGAGAGAGAUCCUGUUUAACUCACUGCAACACCAGGGUCACUCCCUCCUCUCUGCUCUCCCUGG</t>
         </is>
@@ -5774,22 +6175,25 @@
       <c r="D134" t="n">
         <v>234665</v>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E134" t="n">
+        <v>10371</v>
+      </c>
+      <c r="F134" t="inlineStr">
         <is>
           <t>mmu-mir-1907</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>CCCAGCCCCACUCCCCCUCGCUGUCUCUUGCUGGCUGAUUUUAAUUCUCUCCUACCGGGAGCAGCAGAGGAUCUGGAGGUGGCUGGACCC</t>
         </is>
@@ -5814,22 +6218,25 @@
       <c r="D135" t="n">
         <v>43214</v>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E135" t="n">
+        <v>4276</v>
+      </c>
+      <c r="F135" t="inlineStr">
         <is>
           <t>mmu-mir-8097</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>UAUGGUGCUACUGAGCAUUUUCUUUUGGUAAACAAGGAAAAUGUCCGGGCUGCAGCCGUGUGCCGUCCGUCGUUUUCCUCGCUGCAUCCAUUAAUCUGCUUAGAGAACACUAGUGCCAG</t>
         </is>
@@ -5854,22 +6261,25 @@
       <c r="D136" t="n">
         <v>23215</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F136" t="inlineStr">
         <is>
           <t>mmu-mir-7676-1</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>AGGGCAGUAUGAUGGCCUCUGAUUAUGUCACUCCUGGAGAUCCGGUGCUCACUCUGCCCACA</t>
         </is>
@@ -5894,22 +6304,25 @@
       <c r="D137" t="n">
         <v>25202</v>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E137" t="n">
+        <v>4852</v>
+      </c>
+      <c r="F137" t="inlineStr">
         <is>
           <t>mmu-mir-7676-2</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>AGGGCAGUAUGAUGGCCUCUGAUUAUGUCACUCCUGGAGAUCCGGUGCUCACUCUGCCCACA</t>
         </is>
@@ -5934,22 +6347,25 @@
       <c r="D138" t="n">
         <v>4869</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" t="n">
+        <v>1590</v>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>mmu-mir-7684</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>UCUGGGAAGCCUGGGCAGCAGUGGGGCAACCAUGGAGCUGCUGACUGGGGCUGGCCUGUG</t>
         </is>
@@ -5974,22 +6390,25 @@
       <c r="D139" t="n">
         <v>56</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" t="n">
+        <v>56</v>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>mmu-mir-12186</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>AGGGACUCAGGCCUCUGUUGGUGCCACUUCCUCCAGCAGCUGGCCUGUGUCCCUGC</t>
         </is>
@@ -6014,22 +6433,25 @@
       <c r="D140" t="n">
         <v>3752</v>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E140" t="n">
+        <v>1489</v>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>mmu-let-7c-2</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>ACGGCCUUUGGGGUGAGGUAGUAGGUUGUAUGGUUUUGGGCUCUGCCCCGCUCUGCGGUAACUAUACAAUCUACUGUCUUUCCUGAAGUGGCCGC</t>
         </is>
@@ -6054,22 +6476,25 @@
       <c r="D141" t="n">
         <v>3752</v>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E141" t="n">
+        <v>1489</v>
+      </c>
+      <c r="F141" t="inlineStr">
         <is>
           <t>mmu-let-7b</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>GCAGGGUGAGGUAGUAGGUUGUGUGGUUUCAGGGCAGUGAUGUUGCCCCUCCGAAGAUAACUAUACAACCUACUGCCUUCCCUGA</t>
         </is>
@@ -6094,22 +6519,25 @@
       <c r="D142" t="n">
         <v>16215</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" t="n">
+        <v>6527</v>
+      </c>
+      <c r="F142" t="inlineStr">
         <is>
           <t>mmu-mir-6958</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>GUGGGAGAAGAGGCUGCUGUGGGUGCCCCCAAGUCCGCUAGCUCAGCUCCUCAGCUGCCUCUUGCCAUCACAG</t>
         </is>
@@ -6134,22 +6562,25 @@
       <c r="D143" t="n">
         <v>6244</v>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E143" t="n">
+        <v>3727</v>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>mmu-mir-7648</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>CCGCGUUCCGGGCUCGGCGCUCCGGGCUGCCCAGGGCUGGGCCCGGGACGCGG</t>
         </is>
@@ -6174,22 +6605,25 @@
       <c r="D144" t="n">
         <v>62</v>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E144" t="n">
+        <v>62</v>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>mmu-mir-12187</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>UAAGGGGAGAGGUGUGGUGUAGGACAGGGUCUCUCUAGUCUUUCAUUCACCUCUGCUCUUGC</t>
         </is>
@@ -6214,22 +6648,25 @@
       <c r="D145" t="n">
         <v>35149</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" t="n">
+        <v>8576</v>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t>mmu-mir-1306</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>CAGUCUCCACCACCUCCCCUGCAAACGUCCAGUGAUGCAGAGGUAAUGGACGUUGGCUCUGGUGGUGAUGGACAGUCCG</t>
         </is>
@@ -6254,22 +6691,25 @@
       <c r="D146" t="n">
         <v>35149</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" t="n">
+        <v>8576</v>
+      </c>
+      <c r="F146" t="inlineStr">
         <is>
           <t>mmu-mir-3618</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>UAAGCUGAGUGCAUUGUGAUUUCCAAUAAUUGAGGCAGUGGUUCUAAAAGCUGUCUACAUUAAUGAAAAGAGCAAUGUGGCCAGCUUG</t>
         </is>
@@ -6294,22 +6734,25 @@
       <c r="D147" t="n">
         <v>60</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" t="n">
+        <v>60</v>
+      </c>
+      <c r="F147" t="inlineStr">
         <is>
           <t>mmu-mir-1970b</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>UAUGUCACUGGGCAUUGGCUUUGAGGUUUCAAAUGCUCAAGCCAGGCCCAGUGUCACUCU</t>
         </is>
@@ -6334,22 +6777,25 @@
       <c r="D148" t="n">
         <v>2223</v>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E148" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F148" t="inlineStr">
         <is>
           <t>mmu-mir-155</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>CUGUUAAUGCUAAUUGUGAUAGGGGUUUUGGCCUCUGACUGACUCCUACCUGUUAGCAUUAACAG</t>
         </is>
@@ -6374,22 +6820,25 @@
       <c r="D149" t="n">
         <v>12978</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" t="n">
+        <v>6334</v>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>mmu-mir-99b</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>GGCACCCACCCGUAGAACCGACCUUGCGGGGCCUUCGCCGCACACAAGCUCGUGUCUGUGGGUCCGUGUC</t>
         </is>
@@ -6414,22 +6863,25 @@
       <c r="D150" t="n">
         <v>12978</v>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E150" t="n">
+        <v>6334</v>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>mmu-let-7e</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>CGCGCCCCCCGGGCUGAGGUAGGAGGUUGUAUAGUUGAGGAAGACACCCGAGGAGAUCACUAUACGGCCUCCUAGCUUUCCCCAGGCUGCGCC</t>
         </is>
@@ -6454,22 +6906,25 @@
       <c r="D151" t="n">
         <v>12978</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" t="n">
+        <v>6334</v>
+      </c>
+      <c r="F151" t="inlineStr">
         <is>
           <t>mmu-mir-125a</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>CUGGGUCCCUGAGACCCUUUAACCUGUGAGGACGUCCAGGGUCACAGGUGAGGUUCUUGGGAGCCUGG</t>
         </is>
@@ -6494,22 +6949,25 @@
       <c r="D152" t="n">
         <v>21601</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" t="n">
+        <v>9658</v>
+      </c>
+      <c r="F152" t="inlineStr">
         <is>
           <t>mmu-mir-5125</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>CGCCUUGCAGUCUAAGGAGAGCCCCAUGCCUUUGGACAUGCUGUUCCUUCUGCCUGGGAUUUCCUUGUCUGCCUGGUGA</t>
         </is>
@@ -6534,22 +6992,25 @@
       <c r="D153" t="n">
         <v>28723</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" t="n">
+        <v>4067</v>
+      </c>
+      <c r="F153" t="inlineStr">
         <is>
           <t>mmu-mir-12188</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>UAGAAGAGCUUUCGCUGGCCCAGACGUGAGGGCUGGCCCCCCAGCCUUGGACAGCAGUACCCCAGCCCCUCUGC</t>
         </is>
@@ -6574,22 +7035,25 @@
       <c r="D154" t="n">
         <v>2286</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" t="n">
+        <v>1410</v>
+      </c>
+      <c r="F154" t="inlineStr">
         <is>
           <t>mmu-mir-3082</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>GGACAGAGUGUGUGUGUCUGUGUGGAGACAGGAGUUGCCCACACAUGGCACUCAACUCUGCAGG</t>
         </is>
@@ -6614,22 +7078,25 @@
       <c r="D155" t="n">
         <v>58</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" t="n">
+        <v>58</v>
+      </c>
+      <c r="F155" t="inlineStr">
         <is>
           <t>mmu-mir-6967-1</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>AAAGGCAGGGAGGGAUAAAGACCAGUCACUAUGGAAACUCAUCUUUAUCUCUCCCCAG</t>
         </is>
@@ -6654,22 +7121,25 @@
       <c r="D156" t="n">
         <v>57</v>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E156" t="n">
+        <v>57</v>
+      </c>
+      <c r="F156" t="inlineStr">
         <is>
           <t>mmu-mir-3083b</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>AAGGCUGGGAAUGUUUCGGAGAUAUACAUAUAUAUCUCUGAAAUAUUCCCAGCCUUU</t>
         </is>
@@ -6694,22 +7164,25 @@
       <c r="D157" t="n">
         <v>58</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" t="n">
+        <v>58</v>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t>mmu-mir-6967-2</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>AAAGGCAGGGAGGGAUAAAGACCAGUCACUAUGGAAACUCAUCUUUAUCUCUCCCCAG</t>
         </is>
@@ -6734,22 +7207,25 @@
       <c r="D158" t="n">
         <v>15497</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" t="n">
+        <v>6502</v>
+      </c>
+      <c r="F158" t="inlineStr">
         <is>
           <t>mmu-mir-1894</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t>UCUUUGUUCUCUCUCCCCUACCACCUGCCUCUUCCCUGCUGUGGAGCAGGCAAGGGAGAGGGUGAAGGGAGGGCCAGCCAG</t>
         </is>
@@ -6774,22 +7250,25 @@
       <c r="D159" t="n">
         <v>57</v>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E159" t="n">
+        <v>57</v>
+      </c>
+      <c r="F159" t="inlineStr">
         <is>
           <t>mmu-mir-12189</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>GUGUGACAUGGCAGUCGCCAUGGCCUUCCCCAGGACAUGGCCUGUACUCUCACACUA</t>
         </is>
@@ -6814,22 +7293,25 @@
       <c r="D160" t="n">
         <v>72</v>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E160" t="n">
+        <v>72</v>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>mmu-mir-12190</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>ACCUCAGUCUUUCUAAGCCUCAGCUGUGGAUGUGAGGUCCCUGGCAUUUGGGGCUGGAGAACUCUGGGGGAG</t>
         </is>
@@ -6854,22 +7336,25 @@
       <c r="D161" t="n">
         <v>39983</v>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E161" t="n">
+        <v>9649</v>
+      </c>
+      <c r="F161" t="inlineStr">
         <is>
           <t>mmu-mir-7219</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>UGUGUUAGAGCUCAGGGUUGAGAUCAUGUGAUCUAUCCGGGUUUCUAACACACU</t>
         </is>
@@ -6894,22 +7379,25 @@
       <c r="D162" t="n">
         <v>54907</v>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E162" t="n">
+        <v>3968</v>
+      </c>
+      <c r="F162" t="inlineStr">
         <is>
           <t>mmu-mir-1893</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>CCAGAGCGGAGAGGUAUCUGCUGCGCCUGAGAUGAGUAAACUGUCGUUUCGGGCGCGGGCGCUGGACGCCUCGAAGCCGCUGC</t>
         </is>
@@ -6934,22 +7422,25 @@
       <c r="D163" t="n">
         <v>14434</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" t="n">
+        <v>4449</v>
+      </c>
+      <c r="F163" t="inlineStr">
         <is>
           <t>mmu-mir-12191</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>CGCCUUUUAAGGGCACCGUGGGGCGAACGGAGCGCUCAGAGCUGCUCCGGCCGCGGCCCAUGGAGCUGUAGGAGCCGCG</t>
         </is>
@@ -6974,22 +7465,25 @@
       <c r="D164" t="n">
         <v>113480</v>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E164" t="n">
+        <v>15221</v>
+      </c>
+      <c r="F164" t="inlineStr">
         <is>
           <t>mmu-mir-8091</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>UGGAGAUUUCCUUGUAGGGUGCUUGGAUUAGGUUAGGGGGAGGAGUGAGUGGUAAGCUGGUGGGAUGCUUCCAGUUCCCACCAGUUUAUAAUUCAUUCCGUUACUUUUCUGGUGGUGUUUUCAGUUUUCAAAGUUCACU</t>
         </is>
@@ -7014,22 +7508,25 @@
       <c r="D165" t="n">
         <v>13189</v>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E165" t="n">
+        <v>5453</v>
+      </c>
+      <c r="F165" t="inlineStr">
         <is>
           <t>mmu-mir-5114</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>ACUGGAGACGGAAGCUGCAAGAGCGGCUGAGUGUGGGGUCUUGCAGUUCCUGUUCCAGAAG</t>
         </is>
@@ -7054,22 +7551,25 @@
       <c r="D166" t="n">
         <v>12274</v>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E166" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F166" t="inlineStr">
         <is>
           <t>mmu-mir-6715</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>ACAGGCACCACAGGUUUGAGCAUUUUGAUUGAAUUGCCAAACCAGGCGUGCCUGUGG</t>
         </is>
@@ -7094,22 +7594,25 @@
       <c r="D167" t="n">
         <v>50</v>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E167" t="n">
+        <v>50</v>
+      </c>
+      <c r="F167" t="inlineStr">
         <is>
           <t>mmu-mir-12192</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>non-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
+        <is>
+          <t>non-coding gene</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>UGUGGGGUAUAGCUAGAAAGAGAGAUUUCUUUCUAGCUAUACCCCAGCAU</t>
         </is>
@@ -7134,22 +7637,25 @@
       <c r="D168" t="n">
         <v>11544</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" t="n">
+        <v>3132</v>
+      </c>
+      <c r="F168" t="inlineStr">
         <is>
           <t>mmu-mir-5046</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>UCCUAGCUCCCGCCACUGUGACCCCCUUACCUUUAGGAGCUCCGAUCCGGGAGCCUGGU</t>
         </is>
@@ -7174,22 +7680,25 @@
       <c r="D169" t="n">
         <v>10733</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F169" t="inlineStr">
         <is>
           <t>mmu-mir-6990</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>GCUUGCCCAGGGUGAGUCAGGGCUCUCCUGUCAUCUGGGCCCCCUCCGGGCUCUGGGAGGCCGCCACUGGAGCCCUGCCUCUUCCUGGCAG</t>
         </is>
@@ -7214,22 +7723,25 @@
       <c r="D170" t="n">
         <v>8151</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E170" t="n">
+        <v>5040</v>
+      </c>
+      <c r="F170" t="inlineStr">
         <is>
           <t>mmu-mir-6991</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>AGCAGUGGAGAACAGGGACUGGGCCUGAUUGAUGGCACUCGCUCCAAGGCAGCCCUUUGUUCUUCUCCAG</t>
         </is>
@@ -7254,22 +7766,25 @@
       <c r="D171" t="n">
         <v>23379</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E171" t="n">
+        <v>6831</v>
+      </c>
+      <c r="F171" t="inlineStr">
         <is>
           <t>mmu-mir-8092</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>protein-coding gene</t>
+          <t>+</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
+        <is>
+          <t>protein-coding gene</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>GCAGCGCGGCGCUCGGCUUUCCGGCAGUACCCGGAUGGAGGGGUAAUGGCCGCCAUCUGGGACUCGCAGGCAAUGGGGACCACGGCA</t>
         </is>
